--- a/Final Presentation/11. Functional Requirements(User Stories).xlsx
+++ b/Final Presentation/11. Functional Requirements(User Stories).xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunco\Google Drive (scottsun17@gmail.com)\Computer Science Project\BundleBid\Final Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCAC2C7-5026-44F1-9AF1-D8AFE1E2E841}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C964E403-3E81-4F67-B162-CD64184F69AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>As a/an</t>
   </si>
@@ -235,13 +235,19 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>The purpose of the user stories is to describe the features of the system in an informal language. It helps to understand the perspective of end user of the system and describe how they may use it.</t>
+  </si>
+  <si>
+    <t>Our team use user stories to understand the perspective of our end user and how they would like to use our application. It provides an insight of the functions that are provided to the users and how they may use those functions. It will also help us in the future when we develop the function to more catered toward the end user and helps tester in testing the functions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,6 +290,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -423,7 +435,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -478,6 +490,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -826,25 +841,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E925F31-0E3F-4047-8350-B0EF6A0D6BDC}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.296875" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.296875" customWidth="1"/>
-    <col min="6" max="6" width="50.09765625" customWidth="1"/>
-    <col min="7" max="7" width="12.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" customWidth="1"/>
+    <col min="6" max="6" width="50.125" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:23" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,7 +870,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -864,7 +879,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -886,8 +901,18 @@
       <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="P3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>69</v>
       </c>
@@ -907,8 +932,16 @@
         <v>36</v>
       </c>
       <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="1:23" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
@@ -928,8 +961,16 @@
         <v>38</v>
       </c>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="1:23" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>69</v>
       </c>
@@ -949,8 +990,18 @@
         <v>40</v>
       </c>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -970,8 +1021,16 @@
         <v>68</v>
       </c>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="8" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1050,16 @@
         <v>42</v>
       </c>
       <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+    </row>
+    <row r="9" spans="1:23" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1079,16 @@
         <v>44</v>
       </c>
       <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+    </row>
+    <row r="10" spans="1:23" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1108,16 @@
         <v>46</v>
       </c>
       <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+    </row>
+    <row r="11" spans="1:23" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>69</v>
       </c>
@@ -1055,7 +1138,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1159,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>69</v>
       </c>
@@ -1097,7 +1180,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>69</v>
       </c>
@@ -1118,7 +1201,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
@@ -1139,7 +1222,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>69</v>
       </c>
@@ -1160,7 +1243,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>69</v>
       </c>
@@ -1181,7 +1264,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>69</v>
       </c>
@@ -1202,7 +1285,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>69</v>
       </c>
@@ -1224,6 +1307,10 @@
       <c r="G19" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P6:W10"/>
+    <mergeCell ref="P3:W5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Final Presentation/11. Functional Requirements(User Stories).xlsx
+++ b/Final Presentation/11. Functional Requirements(User Stories).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunco\Google Drive (scottsun17@gmail.com)\Computer Science Project\BundleBid\Final Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C964E403-3E81-4F67-B162-CD64184F69AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE61F999-75B4-4A3A-A9DE-BD9AB10D547A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>As a/an</t>
   </si>
@@ -235,19 +235,13 @@
   </si>
   <si>
     <t>TBD</t>
-  </si>
-  <si>
-    <t>The purpose of the user stories is to describe the features of the system in an informal language. It helps to understand the perspective of end user of the system and describe how they may use it.</t>
-  </si>
-  <si>
-    <t>Our team use user stories to understand the perspective of our end user and how they would like to use our application. It provides an insight of the functions that are provided to the users and how they may use those functions. It will also help us in the future when we develop the function to more catered toward the end user and helps tester in testing the functions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,12 +284,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -435,7 +423,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -490,9 +478,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -844,7 +829,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="P3" sqref="P3:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -879,7 +864,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -901,16 +886,14 @@
       <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -932,14 +915,6 @@
         <v>36</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
     </row>
     <row r="5" spans="1:23" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -961,16 +936,8 @@
         <v>38</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-    </row>
-    <row r="6" spans="1:23" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>69</v>
       </c>
@@ -990,18 +957,8 @@
         <v>40</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="P6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-    </row>
-    <row r="7" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -1021,16 +978,8 @@
         <v>68</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-    </row>
-    <row r="8" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
@@ -1050,14 +999,6 @@
         <v>42</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
     </row>
     <row r="9" spans="1:23" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1079,14 +1020,6 @@
         <v>44</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
     </row>
     <row r="10" spans="1:23" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -1108,14 +1041,6 @@
         <v>46</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
     </row>
     <row r="11" spans="1:23" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -1307,10 +1232,6 @@
       <c r="G19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="P6:W10"/>
-    <mergeCell ref="P3:W5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
